--- a/data/math/math-101.xlsx
+++ b/data/math/math-101.xlsx
@@ -464,10 +464,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            sign = 1;
+</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>0.33333</t>
@@ -488,10 +493,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>0.33333</t>
@@ -512,10 +522,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this(DEFAULT_IMAGINARY_CHARACTER, getDefaultNumberFormat());
+</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0.28571</t>
@@ -536,10 +551,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0.28571</t>
@@ -560,10 +580,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getDefaultNumberFormat(Locale.getDefault());
+</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0.28571</t>
@@ -584,10 +609,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        parseAndIgnoreWhitespace(source, pos);
+</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0.18182</t>
@@ -608,10 +638,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Number im = parseNumber(source, getRealFormat(), pos);
+</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0.18182</t>
@@ -632,10 +667,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (im == null) {
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.18182</t>
@@ -656,10 +696,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int n = getImaginaryCharacter().length();
+</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0.18182</t>
@@ -680,10 +725,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        startIndex = pos.getIndex();
+</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0.18182</t>
@@ -704,10 +754,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int endIndex = startIndex + n;
+</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0.18182</t>
@@ -728,17 +783,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (
+</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0.18182</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -752,10 +812,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int initialIndex = pos.getIndex();
+</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -776,10 +841,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        parseAndIgnoreWhitespace(source, pos);
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -800,10 +870,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Number re = parseNumber(source, getRealFormat(), pos);
+</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -824,10 +899,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (re == null) {
+</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -848,10 +928,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int startIndex = pos.getIndex();
+</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -872,10 +957,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        char c = parseNextCharacter(source, pos);
+</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -896,10 +986,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int sign = 0;
+</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -920,10 +1015,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        switch (c) {
+</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -944,10 +1044,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        parseNextCharacter(source, pos);
+</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -968,10 +1073,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        pos.setIndex(pos.getIndex() - 1);
+</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -992,10 +1102,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1016,10 +1131,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         int index = pos.getIndex();
+</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1040,10 +1160,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         int n = source.length();
+</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1064,10 +1189,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         char ret = 0;
+</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1088,10 +1218,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         if (index &lt; n) {
+</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1112,10 +1247,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 c = source.charAt(index++);
+</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1136,10 +1276,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             } while (Character.isWhitespace(c) &amp;&amp; index &lt; n);
+</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1160,10 +1305,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             pos.setIndex(index);
+</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1184,10 +1334,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             if (index &lt; n) {
+</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1208,10 +1363,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 ret = c;
+</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1232,10 +1392,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         return ret;
+</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1256,10 +1421,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int startIndex = pos.getIndex();
+</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1280,10 +1450,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Number number = format.parse(source, pos);
+</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1304,10 +1479,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int endIndex = pos.getIndex();
+</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1328,10 +1508,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (startIndex == endIndex) {
+</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1352,10 +1537,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return number;
+</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -1376,10 +1566,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return imaginaryCharacter;
+</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>0.08696</t>
@@ -1400,10 +1595,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return realFormat;
+</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>0.07143</t>
@@ -1424,10 +1624,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this(DEFAULT_IMAGINARY_CHARACTER, format);
+</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1448,10 +1653,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1472,10 +1682,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this(imaginaryCharacter, format, (NumberFormat)format.clone());
+</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1496,10 +1711,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1520,10 +1740,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1544,10 +1769,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        setImaginaryCharacter(imaginaryCharacter);
+</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1568,10 +1798,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        setImaginaryFormat(imaginaryFormat);
+</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1592,10 +1827,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        setRealFormat(realFormat);
+</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1616,10 +1856,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1640,10 +1885,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        NumberFormat nf = NumberFormat.getInstance(locale);
+</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1664,10 +1914,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        nf.setMaximumFractionDigits(2);
+</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1688,10 +1943,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return nf;
+</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1712,10 +1972,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        NumberFormat f = getDefaultNumberFormat(locale);
+</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1736,10 +2001,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new ComplexFormat(f);
+</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1760,10 +2030,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (imaginaryCharacter == null || imaginaryCharacter.length() == 0) {
+</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1784,10 +2059,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.imaginaryCharacter = imaginaryCharacter;
+</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1808,10 +2088,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1832,10 +2117,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (imaginaryFormat == null) {
+</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1856,10 +2146,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.imaginaryFormat = imaginaryFormat;
+</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1880,10 +2175,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1904,10 +2204,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (realFormat == null) {
+</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1928,10 +2233,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.realFormat = realFormat;
+</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1952,10 +2262,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1976,10 +2291,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this(DEFAULT_IMAGINARY_CHARACTER, realFormat, imaginaryFormat);
+</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2000,10 +2320,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2024,10 +2349,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this(imaginaryCharacter, getDefaultNumberFormat());
+</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2048,10 +2378,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2072,10 +2407,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getInstance().format( c );
+</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2096,10 +2436,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        pos.setBeginIndex(0);
+</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2120,10 +2465,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        pos.setEndIndex(0);
+</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2144,10 +2494,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double re = complex.getReal();
+</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2168,10 +2523,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        formatDouble(re, getRealFormat(), toAppendTo, pos);
+</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2192,10 +2552,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double im = complex.getImaginary();
+</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2216,10 +2581,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (im &lt; 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2240,10 +2610,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            toAppendTo.append(" - ");
+</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2264,10 +2639,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            formatDouble(-im, getImaginaryFormat(), toAppendTo, pos);
+</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2288,10 +2668,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            toAppendTo.append(getImaginaryCharacter());
+</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2312,10 +2697,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (im &gt; 0.0 || Double.isNaN(im)) {
+</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2336,10 +2726,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            toAppendTo.append(" + ");
+</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2360,10 +2755,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            formatDouble(im, getImaginaryFormat(), toAppendTo, pos);
+</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2384,10 +2784,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            toAppendTo.append(getImaginaryCharacter());
+</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2408,10 +2813,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return toAppendTo;
+</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2432,10 +2842,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        StringBuffer ret = null;
+</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2456,10 +2871,15 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (obj instanceof Complex) {
+</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2480,10 +2900,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = format( (Complex)obj, toAppendTo, pos);
+</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2504,10 +2929,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (obj instanceof Number) {
+</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2528,10 +2958,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = format( new Complex(((Number)obj).doubleValue(), 0.0),
+</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2552,10 +2987,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2576,10 +3016,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2600,10 +3045,15 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if( Double.isNaN(value) || Double.isInfinite(value) ) {
+</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2624,10 +3074,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            toAppendTo.append('(');
+</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2648,10 +3103,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            toAppendTo.append(value);
+</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2672,10 +3132,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            toAppendTo.append(')');
+</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2696,10 +3161,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            format.format(value, toAppendTo, pos);
+</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2720,10 +3190,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return toAppendTo;
+</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2744,10 +3219,15 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return NumberFormat.getAvailableLocales();
+</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2768,10 +3248,15 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return imaginaryFormat;
+</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2792,10 +3277,15 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getInstance(Locale.getDefault());
+</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2816,10 +3306,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ParsePosition parsePosition = new ParsePosition(0);
+</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2840,10 +3335,15 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Complex result = parse(source, parsePosition);
+</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2864,10 +3364,15 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (parsePosition.getIndex() == 0) {
+</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2888,10 +3393,15 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ParseException("Unparseable complex number: \"" + source +
+</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2912,10 +3422,15 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return result;
+</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2936,10 +3451,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            pos.setIndex(initialIndex);
+</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2960,10 +3480,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return null;
+</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2984,10 +3509,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return new Complex(re.doubleValue(), 0.0);
+</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3008,10 +3538,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            sign = -1;
+</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3032,10 +3567,15 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3056,10 +3596,15 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            pos.setIndex(initialIndex);
+</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3080,10 +3625,15 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            pos.setErrorIndex(startIndex);
+</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3104,10 +3654,15 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return null;
+</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3128,10 +3683,15 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            pos.setIndex(initialIndex);
+</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3152,10 +3712,15 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return null;
+</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3176,10 +3741,15 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            pos.setIndex(initialIndex);
+</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3200,10 +3770,15 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            pos.setErrorIndex(startIndex);
+</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3224,10 +3799,15 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return null;
+</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3248,10 +3828,15 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        pos.setIndex(endIndex);
+</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3272,10 +3857,15 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new Complex(re.doubleValue(), im.doubleValue() * sign);
+</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3296,10 +3886,15 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Number ret = null;
+</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3320,10 +3915,15 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        StringBuffer sb = new StringBuffer();
+</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3344,10 +3944,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sb.append('(');
+</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3368,10 +3973,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sb.append(value);
+</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3392,10 +4002,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sb.append(')');
+</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3416,10 +4031,15 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int n = sb.length();
+</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3440,10 +4060,15 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int startIndex = pos.getIndex();
+</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3464,10 +4089,15 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int endIndex = startIndex + n;
+</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3488,10 +4118,15 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (endIndex &lt; source.length()) {
+</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3512,10 +4147,15 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (source.substring(startIndex, endIndex).compareTo(sb.toString()) == 0) {
+</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3536,10 +4176,15 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ret = new Double(value);
+</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3560,10 +4205,15 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                pos.setIndex(endIndex);
+</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3584,10 +4234,15 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3608,10 +4263,15 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double[] special = {Double.NaN, Double.POSITIVE_INFINITY, Double.NEGATIVE_INFINITY};
+</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3632,10 +4292,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for (int i = 0; i &lt; special.length; ++i) {
+</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3656,10 +4321,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                number = parseNumber(source, special[i], pos);
+</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3680,10 +4350,15 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (number != null) {
+</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3704,10 +4379,15 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    break;
+</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3728,10 +4408,15 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return parse(source, pos);
+</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3752,10 +4437,15 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3776,10 +4466,15 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3800,10 +4495,15 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>0.00000</t>
